--- a/results/mp/logistic/corona/confidence/210/stop-words-topk-masking-0.35/avg_0.003_scores.xlsx
+++ b/results/mp/logistic/corona/confidence/210/stop-words-topk-masking-0.35/avg_0.003_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="73">
   <si>
     <t>anchor score</t>
   </si>
@@ -46,58 +46,64 @@
     <t>crisis</t>
   </si>
   <si>
+    <t>forced</t>
+  </si>
+  <si>
+    <t>war</t>
+  </si>
+  <si>
     <t>die</t>
   </si>
   <si>
+    <t>collapse</t>
+  </si>
+  <si>
     <t>died</t>
   </si>
   <si>
-    <t>collapse</t>
-  </si>
-  <si>
-    <t>war</t>
-  </si>
-  <si>
-    <t>forced</t>
-  </si>
-  <si>
     <t>fraud</t>
   </si>
   <si>
+    <t>sc</t>
+  </si>
+  <si>
+    <t>drop</t>
+  </si>
+  <si>
     <t>fears</t>
   </si>
   <si>
-    <t>drop</t>
-  </si>
-  <si>
-    <t>sc</t>
-  </si>
-  <si>
     <t>panic</t>
   </si>
   <si>
     <t>low</t>
   </si>
   <si>
+    <t>falling</t>
+  </si>
+  <si>
+    <t>avoid</t>
+  </si>
+  <si>
     <t>emergency</t>
   </si>
   <si>
+    <t>cut</t>
+  </si>
+  <si>
     <t>lower</t>
   </si>
   <si>
-    <t>cut</t>
-  </si>
-  <si>
-    <t>avoid</t>
+    <t>empty</t>
+  </si>
+  <si>
+    <t>stop</t>
   </si>
   <si>
     <t>risk</t>
   </si>
   <si>
-    <t>empty</t>
-  </si>
-  <si>
-    <t>stop</t>
+    <t>fight</t>
   </si>
   <si>
     <t>demand</t>
@@ -106,15 +112,15 @@
     <t>oil</t>
   </si>
   <si>
-    <t>prices</t>
-  </si>
-  <si>
     <t>co</t>
   </si>
   <si>
     <t>19</t>
   </si>
   <si>
+    <t>corona</t>
+  </si>
+  <si>
     <t>negative</t>
   </si>
   <si>
@@ -124,43 +130,52 @@
     <t>best</t>
   </si>
   <si>
+    <t>happy</t>
+  </si>
+  <si>
     <t>free</t>
   </si>
   <si>
+    <t>great</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>hand</t>
+  </si>
+  <si>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>heroes</t>
+  </si>
+  <si>
     <t>special</t>
   </si>
   <si>
-    <t>great</t>
-  </si>
-  <si>
-    <t>happy</t>
-  </si>
-  <si>
-    <t>hand</t>
-  </si>
-  <si>
-    <t>thank</t>
+    <t>thanks</t>
+  </si>
+  <si>
+    <t>support</t>
+  </si>
+  <si>
+    <t>interesting</t>
+  </si>
+  <si>
+    <t>confidence</t>
   </si>
   <si>
     <t>positive</t>
   </si>
   <si>
-    <t>thanks</t>
-  </si>
-  <si>
-    <t>interesting</t>
-  </si>
-  <si>
-    <t>support</t>
-  </si>
-  <si>
     <t>good</t>
   </si>
   <si>
-    <t>heroes</t>
-  </si>
-  <si>
-    <t>safe</t>
+    <t>nice</t>
+  </si>
+  <si>
+    <t>join</t>
   </si>
   <si>
     <t>better</t>
@@ -169,58 +184,55 @@
     <t>fresh</t>
   </si>
   <si>
-    <t>confidence</t>
-  </si>
-  <si>
-    <t>join</t>
+    <t>friends</t>
+  </si>
+  <si>
+    <t>like</t>
+  </si>
+  <si>
+    <t>relief</t>
+  </si>
+  <si>
+    <t>save</t>
   </si>
   <si>
     <t>gt</t>
   </si>
   <si>
-    <t>like</t>
-  </si>
-  <si>
-    <t>relief</t>
-  </si>
-  <si>
     <t>well</t>
   </si>
   <si>
+    <t>giving</t>
+  </si>
+  <si>
+    <t>please</t>
+  </si>
+  <si>
     <t>help</t>
   </si>
   <si>
-    <t>please</t>
-  </si>
-  <si>
     <t>hope</t>
   </si>
   <si>
     <t>share</t>
   </si>
   <si>
-    <t>save</t>
-  </si>
-  <si>
     <t>care</t>
   </si>
   <si>
     <t>safety</t>
   </si>
   <si>
-    <t>sure</t>
+    <t>important</t>
+  </si>
+  <si>
+    <t>alert</t>
   </si>
   <si>
     <t>protect</t>
   </si>
   <si>
     <t>increase</t>
-  </si>
-  <si>
-    <t>check</t>
-  </si>
-  <si>
-    <t>corona</t>
   </si>
 </sst>
 </file>
@@ -578,7 +590,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q37"/>
+  <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -586,10 +598,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="J1" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -668,16 +680,16 @@
         <v>5</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="K3">
-        <v>0.9565217391304348</v>
+        <v>0.9347826086956522</v>
       </c>
       <c r="L3">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="M3">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -689,7 +701,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -718,7 +730,7 @@
         <v>54</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="K4">
         <v>0.9322033898305084</v>
@@ -747,13 +759,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.8108108108108109</v>
+        <v>0.7931034482758621</v>
       </c>
       <c r="C5">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="D5">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -765,19 +777,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="K5">
-        <v>0.9083333333333333</v>
+        <v>0.9230769230769231</v>
       </c>
       <c r="L5">
-        <v>109</v>
+        <v>24</v>
       </c>
       <c r="M5">
-        <v>109</v>
+        <v>24</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -789,7 +801,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>11</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -797,13 +809,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.7692307692307693</v>
+        <v>0.7894736842105263</v>
       </c>
       <c r="C6">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="D6">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -815,19 +827,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="K6">
-        <v>0.8611111111111112</v>
+        <v>0.9166666666666666</v>
       </c>
       <c r="L6">
-        <v>31</v>
+        <v>110</v>
       </c>
       <c r="M6">
-        <v>31</v>
+        <v>110</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -839,7 +851,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -847,13 +859,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.7666666666666667</v>
+        <v>0.7837837837837838</v>
       </c>
       <c r="C7">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="D7">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -865,19 +877,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="K7">
-        <v>0.8571428571428571</v>
+        <v>0.8660714285714286</v>
       </c>
       <c r="L7">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="M7">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -889,7 +901,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -897,13 +909,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.7631578947368421</v>
+        <v>0.7333333333333333</v>
       </c>
       <c r="C8">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="D8">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -915,31 +927,31 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="K8">
-        <v>0.8461538461538461</v>
+        <v>0.828125</v>
       </c>
       <c r="L8">
+        <v>106</v>
+      </c>
+      <c r="M8">
+        <v>106</v>
+      </c>
+      <c r="N8">
+        <v>1</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+      <c r="P8" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q8">
         <v>22</v>
-      </c>
-      <c r="M8">
-        <v>22</v>
-      </c>
-      <c r="N8">
-        <v>1</v>
-      </c>
-      <c r="O8">
-        <v>0</v>
-      </c>
-      <c r="P8" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q8">
-        <v>4</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -947,13 +959,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.7586206896551724</v>
+        <v>0.7307692307692307</v>
       </c>
       <c r="C9">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D9">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -968,16 +980,16 @@
         <v>7</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="K9">
-        <v>0.835509138381201</v>
+        <v>0.825065274151436</v>
       </c>
       <c r="L9">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="M9">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -989,7 +1001,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>63</v>
+        <v>67</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -997,49 +1009,49 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.75</v>
+        <v>0.7222222222222222</v>
       </c>
       <c r="C10">
+        <v>26</v>
+      </c>
+      <c r="D10">
+        <v>26</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10" t="b">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>10</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="K10">
+        <v>0.8098591549295775</v>
+      </c>
+      <c r="L10">
+        <v>115</v>
+      </c>
+      <c r="M10">
+        <v>115</v>
+      </c>
+      <c r="N10">
+        <v>1</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+      <c r="P10" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q10">
         <v>27</v>
-      </c>
-      <c r="D10">
-        <v>27</v>
-      </c>
-      <c r="E10">
-        <v>0</v>
-      </c>
-      <c r="F10">
-        <v>1</v>
-      </c>
-      <c r="G10" t="b">
-        <v>0</v>
-      </c>
-      <c r="H10">
-        <v>9</v>
-      </c>
-      <c r="J10" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="K10">
-        <v>0.828125</v>
-      </c>
-      <c r="L10">
-        <v>106</v>
-      </c>
-      <c r="M10">
-        <v>106</v>
-      </c>
-      <c r="N10">
-        <v>1</v>
-      </c>
-      <c r="O10">
-        <v>0</v>
-      </c>
-      <c r="P10" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q10">
-        <v>22</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1047,13 +1059,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.6078431372549019</v>
+        <v>0.5661375661375662</v>
       </c>
       <c r="C11">
-        <v>31</v>
+        <v>107</v>
       </c>
       <c r="D11">
-        <v>31</v>
+        <v>107</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1065,19 +1077,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>20</v>
+        <v>82</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="K11">
-        <v>0.8103448275862069</v>
+        <v>0.8085106382978723</v>
       </c>
       <c r="L11">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="M11">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1089,7 +1101,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1097,13 +1109,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.5932203389830508</v>
+        <v>0.559322033898305</v>
       </c>
       <c r="C12">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D12">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1115,19 +1127,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K12">
-        <v>0.7926829268292683</v>
+        <v>0.8055555555555556</v>
       </c>
       <c r="L12">
-        <v>65</v>
+        <v>29</v>
       </c>
       <c r="M12">
-        <v>65</v>
+        <v>29</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1139,7 +1151,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>17</v>
+        <v>7</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1147,13 +1159,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.5661375661375662</v>
+        <v>0.5490196078431373</v>
       </c>
       <c r="C13">
-        <v>107</v>
+        <v>28</v>
       </c>
       <c r="D13">
-        <v>107</v>
+        <v>28</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1165,19 +1177,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>82</v>
+        <v>23</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="K13">
-        <v>0.7878787878787878</v>
+        <v>0.8048780487804879</v>
       </c>
       <c r="L13">
-        <v>26</v>
+        <v>66</v>
       </c>
       <c r="M13">
-        <v>26</v>
+        <v>66</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1189,7 +1201,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>7</v>
+        <v>16</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1197,13 +1209,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.5503875968992248</v>
+        <v>0.5310077519379846</v>
       </c>
       <c r="C14">
-        <v>284</v>
+        <v>274</v>
       </c>
       <c r="D14">
-        <v>284</v>
+        <v>274</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1215,19 +1227,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>232</v>
+        <v>242</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K14">
-        <v>0.7735849056603774</v>
+        <v>0.7924528301886793</v>
       </c>
       <c r="L14">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="M14">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1239,7 +1251,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1247,13 +1259,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.5302013422818792</v>
+        <v>0.5167785234899329</v>
       </c>
       <c r="C15">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D15">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1265,19 +1277,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="K15">
-        <v>0.76875</v>
+        <v>0.7878787878787878</v>
       </c>
       <c r="L15">
-        <v>123</v>
+        <v>26</v>
       </c>
       <c r="M15">
-        <v>123</v>
+        <v>26</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1289,7 +1301,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>37</v>
+        <v>7</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1297,13 +1309,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.48</v>
+        <v>0.5</v>
       </c>
       <c r="C16">
-        <v>36</v>
+        <v>20</v>
       </c>
       <c r="D16">
-        <v>36</v>
+        <v>20</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1315,19 +1327,19 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>39</v>
+        <v>20</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K16">
-        <v>0.7659574468085106</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="L16">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="M16">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1339,7 +1351,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1347,13 +1359,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.375</v>
+        <v>0.4727272727272727</v>
       </c>
       <c r="C17">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="D17">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1365,19 +1377,19 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="K17">
-        <v>0.7535211267605634</v>
+        <v>0.7758620689655172</v>
       </c>
       <c r="L17">
-        <v>107</v>
+        <v>45</v>
       </c>
       <c r="M17">
-        <v>107</v>
+        <v>45</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1389,7 +1401,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>35</v>
+        <v>13</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1397,13 +1409,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.3454545454545455</v>
+        <v>0.4266666666666667</v>
       </c>
       <c r="C18">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="D18">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1415,19 +1427,19 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K18">
-        <v>0.7301587301587301</v>
+        <v>0.75625</v>
       </c>
       <c r="L18">
-        <v>46</v>
+        <v>121</v>
       </c>
       <c r="M18">
-        <v>46</v>
+        <v>121</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1439,7 +1451,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>17</v>
+        <v>39</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1447,13 +1459,13 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.3454545454545455</v>
+        <v>0.4</v>
       </c>
       <c r="C19">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D19">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1465,19 +1477,19 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="K19">
-        <v>0.7291666666666666</v>
+        <v>0.7407407407407407</v>
       </c>
       <c r="L19">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="M19">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1489,7 +1501,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>13</v>
+        <v>7</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1497,13 +1509,13 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.3116883116883117</v>
+        <v>0.3928571428571428</v>
       </c>
       <c r="C20">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D20">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1515,19 +1527,19 @@
         <v>0</v>
       </c>
       <c r="H20">
+        <v>34</v>
+      </c>
+      <c r="J20" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="J20" s="1" t="s">
-        <v>51</v>
-      </c>
       <c r="K20">
-        <v>0.7222222222222222</v>
+        <v>0.7209302325581395</v>
       </c>
       <c r="L20">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="M20">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1539,7 +1551,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1547,13 +1559,13 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.3</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="C21">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D21">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1565,19 +1577,19 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="K21">
-        <v>0.7209302325581395</v>
+        <v>0.6984126984126984</v>
       </c>
       <c r="L21">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="M21">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1589,7 +1601,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>12</v>
+        <v>19</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -1597,13 +1609,13 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.2619047619047619</v>
+        <v>0.2738095238095238</v>
       </c>
       <c r="C22">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="D22">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1615,19 +1627,19 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="K22">
-        <v>0.675</v>
+        <v>0.6875</v>
       </c>
       <c r="L22">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="M22">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1639,7 +1651,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -1647,13 +1659,13 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.1528150134048257</v>
+        <v>0.2467532467532468</v>
       </c>
       <c r="C23">
-        <v>57</v>
+        <v>19</v>
       </c>
       <c r="D23">
-        <v>57</v>
+        <v>19</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1665,19 +1677,19 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>316</v>
+        <v>58</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="K23">
-        <v>0.6588235294117647</v>
+        <v>0.6785714285714286</v>
       </c>
       <c r="L23">
-        <v>224</v>
+        <v>19</v>
       </c>
       <c r="M23">
-        <v>224</v>
+        <v>19</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1689,7 +1701,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>116</v>
+        <v>9</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -1697,13 +1709,13 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.08</v>
+        <v>0.2375</v>
       </c>
       <c r="C24">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="D24">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -1715,19 +1727,19 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>276</v>
+        <v>61</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="K24">
-        <v>0.6</v>
+        <v>0.6617647058823529</v>
       </c>
       <c r="L24">
-        <v>30</v>
+        <v>225</v>
       </c>
       <c r="M24">
-        <v>30</v>
+        <v>225</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1739,7 +1751,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>20</v>
+        <v>115</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -1747,13 +1759,13 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.01981050818260121</v>
+        <v>0.160857908847185</v>
       </c>
       <c r="C25">
-        <v>23</v>
+        <v>60</v>
       </c>
       <c r="D25">
-        <v>23</v>
+        <v>60</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -1765,19 +1777,19 @@
         <v>0</v>
       </c>
       <c r="H25">
-        <v>1138</v>
+        <v>313</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="K25">
-        <v>0.5851063829787234</v>
+        <v>0.66</v>
       </c>
       <c r="L25">
-        <v>55</v>
+        <v>33</v>
       </c>
       <c r="M25">
-        <v>55</v>
+        <v>33</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1789,7 +1801,7 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>39</v>
+        <v>17</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -1797,37 +1809,37 @@
         <v>31</v>
       </c>
       <c r="B26">
-        <v>0.0119201030927835</v>
+        <v>0.08666666666666667</v>
       </c>
       <c r="C26">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="D26">
-        <v>40</v>
+        <v>26</v>
       </c>
       <c r="E26">
-        <v>0.07000000000000001</v>
+        <v>0</v>
       </c>
       <c r="F26">
-        <v>0.9299999999999999</v>
+        <v>1</v>
       </c>
       <c r="G26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H26">
-        <v>3067</v>
+        <v>274</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="K26">
-        <v>0.5796610169491525</v>
+        <v>0.6571428571428571</v>
       </c>
       <c r="L26">
-        <v>171</v>
+        <v>23</v>
       </c>
       <c r="M26">
-        <v>171</v>
+        <v>23</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1839,7 +1851,7 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>124</v>
+        <v>12</v>
       </c>
     </row>
     <row r="27" spans="1:17">
@@ -1847,37 +1859,37 @@
         <v>32</v>
       </c>
       <c r="B27">
-        <v>0.008895131086142321</v>
+        <v>0.01386649467913576</v>
       </c>
       <c r="C27">
-        <v>19</v>
+        <v>43</v>
       </c>
       <c r="D27">
+        <v>49</v>
+      </c>
+      <c r="E27">
+        <v>0.12</v>
+      </c>
+      <c r="F27">
+        <v>0.88</v>
+      </c>
+      <c r="G27" t="b">
+        <v>1</v>
+      </c>
+      <c r="H27">
+        <v>3058</v>
+      </c>
+      <c r="J27" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="K27">
+        <v>0.65</v>
+      </c>
+      <c r="L27">
         <v>26</v>
       </c>
-      <c r="E27">
-        <v>0.27</v>
-      </c>
-      <c r="F27">
-        <v>0.73</v>
-      </c>
-      <c r="G27" t="b">
-        <v>1</v>
-      </c>
-      <c r="H27">
-        <v>2117</v>
-      </c>
-      <c r="J27" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="K27">
-        <v>0.5774058577405857</v>
-      </c>
-      <c r="L27">
-        <v>138</v>
-      </c>
       <c r="M27">
-        <v>138</v>
+        <v>26</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1889,47 +1901,95 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>101</v>
+        <v>14</v>
       </c>
     </row>
     <row r="28" spans="1:17">
+      <c r="A28" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B28">
+        <v>0.01124121779859485</v>
+      </c>
+      <c r="C28">
+        <v>24</v>
+      </c>
+      <c r="D28">
+        <v>32</v>
+      </c>
+      <c r="E28">
+        <v>0.25</v>
+      </c>
+      <c r="F28">
+        <v>0.75</v>
+      </c>
+      <c r="G28" t="b">
+        <v>1</v>
+      </c>
+      <c r="H28">
+        <v>2111</v>
+      </c>
       <c r="J28" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="K28">
-        <v>0.5692307692307692</v>
+        <v>0.6063829787234043</v>
       </c>
       <c r="L28">
+        <v>57</v>
+      </c>
+      <c r="M28">
+        <v>57</v>
+      </c>
+      <c r="N28">
+        <v>1</v>
+      </c>
+      <c r="O28">
+        <v>0</v>
+      </c>
+      <c r="P28" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q28">
         <v>37</v>
       </c>
-      <c r="M28">
-        <v>37</v>
-      </c>
-      <c r="N28">
-        <v>1</v>
-      </c>
-      <c r="O28">
-        <v>0</v>
-      </c>
-      <c r="P28" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q28">
-        <v>28</v>
-      </c>
     </row>
     <row r="29" spans="1:17">
+      <c r="A29" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B29">
+        <v>0.006610009442870633</v>
+      </c>
+      <c r="C29">
+        <v>21</v>
+      </c>
+      <c r="D29">
+        <v>45</v>
+      </c>
+      <c r="E29">
+        <v>0.53</v>
+      </c>
+      <c r="F29">
+        <v>0.47</v>
+      </c>
+      <c r="G29" t="b">
+        <v>1</v>
+      </c>
+      <c r="H29">
+        <v>3156</v>
+      </c>
       <c r="J29" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="K29">
-        <v>0.5571428571428572</v>
+        <v>0.6060606060606061</v>
       </c>
       <c r="L29">
-        <v>39</v>
+        <v>20</v>
       </c>
       <c r="M29">
-        <v>39</v>
+        <v>20</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -1941,21 +2001,21 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>31</v>
+        <v>13</v>
       </c>
     </row>
     <row r="30" spans="1:17">
       <c r="J30" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="K30">
-        <v>0.5428571428571428</v>
+        <v>0.5983263598326359</v>
       </c>
       <c r="L30">
-        <v>19</v>
+        <v>143</v>
       </c>
       <c r="M30">
-        <v>19</v>
+        <v>143</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -1967,47 +2027,47 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>16</v>
+        <v>96</v>
       </c>
     </row>
     <row r="31" spans="1:17">
       <c r="J31" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="K31">
-        <v>0.5280898876404494</v>
+        <v>0.5850340136054422</v>
       </c>
       <c r="L31">
-        <v>47</v>
+        <v>172</v>
       </c>
       <c r="M31">
-        <v>47</v>
+        <v>173</v>
       </c>
       <c r="N31">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="O31">
-        <v>0</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P31" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q31">
-        <v>42</v>
+        <v>122</v>
       </c>
     </row>
     <row r="32" spans="1:17">
       <c r="J32" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="K32">
-        <v>0.4313725490196079</v>
+        <v>0.5692307692307692</v>
       </c>
       <c r="L32">
-        <v>22</v>
+        <v>37</v>
       </c>
       <c r="M32">
-        <v>22</v>
+        <v>37</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -2019,21 +2079,21 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="33" spans="10:17">
       <c r="J33" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="K33">
-        <v>0.34375</v>
+        <v>0.5571428571428572</v>
       </c>
       <c r="L33">
-        <v>22</v>
+        <v>39</v>
       </c>
       <c r="M33">
-        <v>22</v>
+        <v>39</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -2045,21 +2105,21 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>42</v>
+        <v>31</v>
       </c>
     </row>
     <row r="34" spans="10:17">
       <c r="J34" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="K34">
-        <v>0.3150684931506849</v>
+        <v>0.5168539325842697</v>
       </c>
       <c r="L34">
-        <v>23</v>
+        <v>46</v>
       </c>
       <c r="M34">
-        <v>23</v>
+        <v>46</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -2071,21 +2131,21 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>50</v>
+        <v>43</v>
       </c>
     </row>
     <row r="35" spans="10:17">
       <c r="J35" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="K35">
-        <v>0.282051282051282</v>
+        <v>0.4705882352941176</v>
       </c>
       <c r="L35">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="M35">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -2097,59 +2157,137 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>56</v>
+        <v>27</v>
       </c>
     </row>
     <row r="36" spans="10:17">
       <c r="J36" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="K36">
-        <v>0.1759259259259259</v>
+        <v>0.4666666666666667</v>
       </c>
       <c r="L36">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="M36">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="N36">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="O36">
-        <v>0.05000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P36" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q36">
-        <v>89</v>
+        <v>24</v>
       </c>
     </row>
     <row r="37" spans="10:17">
       <c r="J37" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="K37">
-        <v>0.01004709576138148</v>
+        <v>0.4523809523809524</v>
       </c>
       <c r="L37">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="M37">
-        <v>48</v>
+        <v>19</v>
       </c>
       <c r="N37">
-        <v>0.67</v>
+        <v>1</v>
       </c>
       <c r="O37">
-        <v>0.33</v>
+        <v>0</v>
       </c>
       <c r="P37" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q37">
-        <v>3153</v>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="38" spans="10:17">
+      <c r="J38" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="K38">
+        <v>0.410958904109589</v>
+      </c>
+      <c r="L38">
+        <v>30</v>
+      </c>
+      <c r="M38">
+        <v>30</v>
+      </c>
+      <c r="N38">
+        <v>1</v>
+      </c>
+      <c r="O38">
+        <v>0</v>
+      </c>
+      <c r="P38" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q38">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="39" spans="10:17">
+      <c r="J39" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="K39">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="L39">
+        <v>26</v>
+      </c>
+      <c r="M39">
+        <v>26</v>
+      </c>
+      <c r="N39">
+        <v>1</v>
+      </c>
+      <c r="O39">
+        <v>0</v>
+      </c>
+      <c r="P39" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q39">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="40" spans="10:17">
+      <c r="J40" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="K40">
+        <v>0.007547169811320755</v>
+      </c>
+      <c r="L40">
+        <v>24</v>
+      </c>
+      <c r="M40">
+        <v>45</v>
+      </c>
+      <c r="N40">
+        <v>0.53</v>
+      </c>
+      <c r="O40">
+        <v>0.47</v>
+      </c>
+      <c r="P40" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q40">
+        <v>3156</v>
       </c>
     </row>
   </sheetData>
